--- a/data/pca/factorExposure/factorExposure_2018-05-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-05-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0157452113990363</v>
+        <v>0.02204688354287134</v>
       </c>
       <c r="C2">
-        <v>-0.02795238540643008</v>
+        <v>-0.01720640919888076</v>
       </c>
       <c r="D2">
-        <v>-0.001482064356976859</v>
+        <v>-0.02380725923482927</v>
       </c>
       <c r="E2">
-        <v>0.02159936028019636</v>
+        <v>-0.01329970621083857</v>
       </c>
       <c r="F2">
-        <v>-0.1130183949276428</v>
+        <v>0.01088700909733569</v>
       </c>
       <c r="G2">
-        <v>0.07101152628078795</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.05356894135053403</v>
+      </c>
+      <c r="H2">
+        <v>-0.04617859118986908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.09015969152818377</v>
+        <v>0.08767009396524141</v>
       </c>
       <c r="C3">
-        <v>-0.01445459889974212</v>
+        <v>0.01543065503296525</v>
       </c>
       <c r="D3">
-        <v>-0.05191343262553202</v>
+        <v>-0.0462699297103415</v>
       </c>
       <c r="E3">
-        <v>0.09018638386349627</v>
+        <v>-0.005292158726608335</v>
       </c>
       <c r="F3">
-        <v>-0.4028260450157522</v>
+        <v>0.01062398406700452</v>
       </c>
       <c r="G3">
-        <v>0.2186413903324065</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1889627244028393</v>
+      </c>
+      <c r="H3">
+        <v>-0.1417220606145891</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0408344788723645</v>
+        <v>0.05026242624039651</v>
       </c>
       <c r="C4">
-        <v>-0.0002531930744145333</v>
+        <v>-0.001971197736758243</v>
       </c>
       <c r="D4">
-        <v>0.01359669335141295</v>
+        <v>-0.0513549781620533</v>
       </c>
       <c r="E4">
-        <v>-0.04477954373274667</v>
+        <v>0.02213477999850934</v>
       </c>
       <c r="F4">
-        <v>-0.08158860006278043</v>
+        <v>0.05323288707420305</v>
       </c>
       <c r="G4">
-        <v>0.05015876694970978</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03891610137323522</v>
+      </c>
+      <c r="H4">
+        <v>-0.05497939273311846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02826288422393914</v>
+        <v>0.03006464062120832</v>
       </c>
       <c r="C6">
-        <v>-0.01164974331657053</v>
+        <v>0.0003420447180914536</v>
       </c>
       <c r="D6">
-        <v>-0.003125931278373254</v>
+        <v>-0.05599866353780933</v>
       </c>
       <c r="E6">
-        <v>-0.02067916176302892</v>
+        <v>0.005917035791189949</v>
       </c>
       <c r="F6">
-        <v>-0.01479338519093318</v>
+        <v>0.03145043116131913</v>
       </c>
       <c r="G6">
-        <v>-0.007597603715628684</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01304346862040089</v>
+      </c>
+      <c r="H6">
+        <v>-0.06026901329947366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01908470907126949</v>
+        <v>0.02366924918303281</v>
       </c>
       <c r="C7">
-        <v>-0.008213658023783672</v>
+        <v>-0.001051575673545299</v>
       </c>
       <c r="D7">
-        <v>-0.01282309243162243</v>
+        <v>-0.02860490780368615</v>
       </c>
       <c r="E7">
-        <v>-0.02248135647295165</v>
+        <v>0.04393200353027853</v>
       </c>
       <c r="F7">
-        <v>-0.04928969785171958</v>
+        <v>0.007729338067527809</v>
       </c>
       <c r="G7">
-        <v>0.06660616166723482</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.02396058357420514</v>
+      </c>
+      <c r="H7">
+        <v>-0.03794350124342015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01483087261378007</v>
+        <v>0.005913109534421474</v>
       </c>
       <c r="C8">
-        <v>-0.01054256977581759</v>
+        <v>0.001915758035481593</v>
       </c>
       <c r="D8">
-        <v>-0.003875367691732429</v>
+        <v>-0.0102533046497258</v>
       </c>
       <c r="E8">
-        <v>-0.02973273276358769</v>
+        <v>0.007681752185581991</v>
       </c>
       <c r="F8">
-        <v>-0.09626644780844183</v>
+        <v>0.02105315944456533</v>
       </c>
       <c r="G8">
-        <v>0.05755273708990543</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.04638843785092891</v>
+      </c>
+      <c r="H8">
+        <v>-0.03849592851488418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03312113758368447</v>
+        <v>0.03931303610706501</v>
       </c>
       <c r="C9">
-        <v>-0.009186383805357331</v>
+        <v>0.0009866760820356642</v>
       </c>
       <c r="D9">
-        <v>0.002934259126293701</v>
+        <v>-0.03825588549417911</v>
       </c>
       <c r="E9">
-        <v>-0.03311997617226987</v>
+        <v>0.011336639683476</v>
       </c>
       <c r="F9">
-        <v>-0.09416453362937025</v>
+        <v>0.02989835649199182</v>
       </c>
       <c r="G9">
-        <v>0.0548148523194272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04824005313912824</v>
+      </c>
+      <c r="H9">
+        <v>-0.05349206959559523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03918298391242048</v>
+        <v>0.09306040687582139</v>
       </c>
       <c r="C10">
-        <v>0.08357110524878394</v>
+        <v>0.003551626328857894</v>
       </c>
       <c r="D10">
-        <v>0.06415231197734167</v>
+        <v>0.1718986914073382</v>
       </c>
       <c r="E10">
-        <v>0.1209081853660249</v>
+        <v>-0.00370496538101134</v>
       </c>
       <c r="F10">
-        <v>-0.04539887462324945</v>
+        <v>-0.03289424238123551</v>
       </c>
       <c r="G10">
-        <v>-0.00540027784120002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.03364359066972342</v>
+      </c>
+      <c r="H10">
+        <v>-0.005926605112597293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03116646767498581</v>
+        <v>0.02619927514997322</v>
       </c>
       <c r="C11">
-        <v>-0.02945354538907244</v>
+        <v>0.01224491098426951</v>
       </c>
       <c r="D11">
-        <v>-0.01315301064772875</v>
+        <v>-0.04446793794360149</v>
       </c>
       <c r="E11">
-        <v>-0.02345230621765217</v>
+        <v>-4.107851597656531e-05</v>
       </c>
       <c r="F11">
-        <v>-0.04474649351593183</v>
+        <v>0.01443385976229312</v>
       </c>
       <c r="G11">
-        <v>0.02482167187880993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02863782131755714</v>
+      </c>
+      <c r="H11">
+        <v>-0.04935426900626919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03910065867902061</v>
+        <v>0.02990833250002488</v>
       </c>
       <c r="C12">
-        <v>-0.02769531440584464</v>
+        <v>0.00853910127908592</v>
       </c>
       <c r="D12">
-        <v>-0.006015096853536009</v>
+        <v>-0.04310280791606907</v>
       </c>
       <c r="E12">
-        <v>-0.03451270456021364</v>
+        <v>0.009246885380000748</v>
       </c>
       <c r="F12">
-        <v>-0.02736173855255705</v>
+        <v>0.01663558925382691</v>
       </c>
       <c r="G12">
-        <v>0.01067677339754766</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.009260516846628829</v>
+      </c>
+      <c r="H12">
+        <v>-0.02372281425814374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01395948498988854</v>
+        <v>0.03126621897768228</v>
       </c>
       <c r="C13">
-        <v>-0.01955892106034635</v>
+        <v>-0.01232223658696947</v>
       </c>
       <c r="D13">
-        <v>0.01055282847765452</v>
+        <v>-0.01436372696681134</v>
       </c>
       <c r="E13">
-        <v>0.006797683615310949</v>
+        <v>-0.008911009725304352</v>
       </c>
       <c r="F13">
-        <v>-0.08019038119917543</v>
+        <v>0.02881940519271776</v>
       </c>
       <c r="G13">
-        <v>0.04617092540848612</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.06391888464312859</v>
+      </c>
+      <c r="H13">
+        <v>-0.07067824811505996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01478013877661711</v>
+        <v>0.01922068790646935</v>
       </c>
       <c r="C14">
-        <v>0.0001919755951305485</v>
+        <v>-0.0002350399942399505</v>
       </c>
       <c r="D14">
-        <v>0.003940606985960222</v>
+        <v>-0.009819616080372434</v>
       </c>
       <c r="E14">
-        <v>-0.02851486459642719</v>
+        <v>0.01467516652495693</v>
       </c>
       <c r="F14">
-        <v>-0.06056104466404873</v>
+        <v>0.01961142807799314</v>
       </c>
       <c r="G14">
-        <v>0.0566943305118491</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04167172005986825</v>
+      </c>
+      <c r="H14">
+        <v>-0.009899809421241258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02622199935116259</v>
+        <v>0.02606084722410543</v>
       </c>
       <c r="C16">
-        <v>-0.03062950224503286</v>
+        <v>0.01141950641359927</v>
       </c>
       <c r="D16">
-        <v>-0.006917977861842155</v>
+        <v>-0.03651896382048535</v>
       </c>
       <c r="E16">
-        <v>-0.02062082750784301</v>
+        <v>0.003740215729086469</v>
       </c>
       <c r="F16">
-        <v>-0.04932357786442154</v>
+        <v>0.01817514367863228</v>
       </c>
       <c r="G16">
-        <v>0.02464069692512188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02500628403902344</v>
+      </c>
+      <c r="H16">
+        <v>-0.03801068389575307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03204100617398255</v>
+        <v>0.03707653367209633</v>
       </c>
       <c r="C19">
-        <v>-0.02549911781115355</v>
+        <v>0.001219852422390583</v>
       </c>
       <c r="D19">
-        <v>-0.005896034624728677</v>
+        <v>-0.02931503383526947</v>
       </c>
       <c r="E19">
-        <v>-0.01716747949875544</v>
+        <v>0.006519797025155523</v>
       </c>
       <c r="F19">
-        <v>-0.1035526006756063</v>
+        <v>0.03188629714663693</v>
       </c>
       <c r="G19">
-        <v>0.07314995271846217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.062371156279212</v>
+      </c>
+      <c r="H19">
+        <v>-0.06279748900428055</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.002511327343878182</v>
+        <v>0.01401518821603892</v>
       </c>
       <c r="C20">
-        <v>-0.005187964427175035</v>
+        <v>-0.004152064552999012</v>
       </c>
       <c r="D20">
-        <v>0.003447146673847383</v>
+        <v>-0.01836777331974395</v>
       </c>
       <c r="E20">
-        <v>-0.01891826754351032</v>
+        <v>0.006870558305690193</v>
       </c>
       <c r="F20">
-        <v>-0.0766635538642723</v>
+        <v>0.02172927172727747</v>
       </c>
       <c r="G20">
-        <v>0.07828516699318135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.0547467631944628</v>
+      </c>
+      <c r="H20">
+        <v>-0.02695736156066132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.001671303469193715</v>
+        <v>0.01899886708368991</v>
       </c>
       <c r="C21">
-        <v>0.01439680653220863</v>
+        <v>-0.005943128437053309</v>
       </c>
       <c r="D21">
-        <v>-0.01737418190504194</v>
+        <v>-0.01739020215151934</v>
       </c>
       <c r="E21">
-        <v>-0.03273604407933748</v>
+        <v>0.02035970596634156</v>
       </c>
       <c r="F21">
-        <v>-0.04311704538403951</v>
+        <v>0.01688186769090129</v>
       </c>
       <c r="G21">
-        <v>0.01951508066042964</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04927630820119806</v>
+      </c>
+      <c r="H21">
+        <v>-0.04132616771276387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02755288330351131</v>
+        <v>0.022322974696268</v>
       </c>
       <c r="C24">
-        <v>-0.02502453403736216</v>
+        <v>0.005894634407296979</v>
       </c>
       <c r="D24">
-        <v>0.00112871158514392</v>
+        <v>-0.03895551161844085</v>
       </c>
       <c r="E24">
-        <v>-0.009890673090177516</v>
+        <v>0.002281765985806049</v>
       </c>
       <c r="F24">
-        <v>-0.04560589421372132</v>
+        <v>0.01300405863196498</v>
       </c>
       <c r="G24">
-        <v>0.02314106951915184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02076240644599545</v>
+      </c>
+      <c r="H24">
+        <v>-0.04705097131591111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02893774651753794</v>
+        <v>0.0342832076361087</v>
       </c>
       <c r="C25">
-        <v>-0.02129355022307354</v>
+        <v>0.003894894567179567</v>
       </c>
       <c r="D25">
-        <v>-0.01483394279064705</v>
+        <v>-0.03927163848018462</v>
       </c>
       <c r="E25">
-        <v>-0.0234037583486996</v>
+        <v>0.005857675975058381</v>
       </c>
       <c r="F25">
-        <v>-0.0560933009431425</v>
+        <v>0.02105846356827672</v>
       </c>
       <c r="G25">
-        <v>0.01161504323721737</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02577190230790403</v>
+      </c>
+      <c r="H25">
+        <v>-0.04572448909363191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02022630144394179</v>
+        <v>0.01803099320474031</v>
       </c>
       <c r="C26">
-        <v>-0.01665312751949554</v>
+        <v>-0.01821622205053839</v>
       </c>
       <c r="D26">
-        <v>-0.01869580127700392</v>
+        <v>-0.006997738444309377</v>
       </c>
       <c r="E26">
-        <v>0.001965009373839697</v>
+        <v>0.0003702874638591115</v>
       </c>
       <c r="F26">
-        <v>-0.06338127759239959</v>
+        <v>0.004183808406472788</v>
       </c>
       <c r="G26">
-        <v>0.04808316260332459</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03465571508931228</v>
+      </c>
+      <c r="H26">
+        <v>-0.02453995586922041</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.05285942706710117</v>
+        <v>0.02209924386027888</v>
       </c>
       <c r="C27">
-        <v>-0.01847633839617877</v>
+        <v>0.007968494778092604</v>
       </c>
       <c r="D27">
-        <v>0.0270309281657649</v>
+        <v>-0.01185687480048628</v>
       </c>
       <c r="E27">
-        <v>-0.0348030382630611</v>
+        <v>0.003349560555563273</v>
       </c>
       <c r="F27">
-        <v>-0.04320344815457366</v>
+        <v>0.01463476402493466</v>
       </c>
       <c r="G27">
-        <v>0.0545559970101324</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.008057976895565018</v>
+      </c>
+      <c r="H27">
+        <v>0.003431437615615154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06383037795985953</v>
+        <v>0.1391307321664624</v>
       </c>
       <c r="C28">
-        <v>0.1144164404453404</v>
+        <v>-0.005081440800958219</v>
       </c>
       <c r="D28">
-        <v>0.09545105492851758</v>
+        <v>0.2307808384128625</v>
       </c>
       <c r="E28">
-        <v>0.1515513282745043</v>
+        <v>0.002154818301101819</v>
       </c>
       <c r="F28">
-        <v>-0.04405540565438188</v>
+        <v>-0.02974099032975081</v>
       </c>
       <c r="G28">
-        <v>-0.00466244843945336</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.0210920822193503</v>
+      </c>
+      <c r="H28">
+        <v>0.006109277976170901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01991103973162439</v>
+        <v>0.02386567776359275</v>
       </c>
       <c r="C29">
-        <v>-0.0003119134334357544</v>
+        <v>0.001461010610232295</v>
       </c>
       <c r="D29">
-        <v>0.005285506367869057</v>
+        <v>-0.009952468759242503</v>
       </c>
       <c r="E29">
-        <v>-0.03589577706068116</v>
+        <v>0.01506701676308586</v>
       </c>
       <c r="F29">
-        <v>-0.05809482456947681</v>
+        <v>0.02099063173805795</v>
       </c>
       <c r="G29">
-        <v>0.04628388929854432</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03958914452609339</v>
+      </c>
+      <c r="H29">
+        <v>-0.001225625893757709</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.07954907536531035</v>
+        <v>0.06023979490406626</v>
       </c>
       <c r="C30">
-        <v>-0.05450585148590638</v>
+        <v>0.001551358738491909</v>
       </c>
       <c r="D30">
-        <v>0.009558448119332754</v>
+        <v>-0.08416458632480932</v>
       </c>
       <c r="E30">
-        <v>-0.05132337838449866</v>
+        <v>-0.02806359899251042</v>
       </c>
       <c r="F30">
-        <v>-0.1011313281305014</v>
+        <v>0.05531733979779429</v>
       </c>
       <c r="G30">
-        <v>0.06798980653748281</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.06300822825950238</v>
+      </c>
+      <c r="H30">
+        <v>-0.07798932722607768</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05930611186494055</v>
+        <v>0.05262617548963977</v>
       </c>
       <c r="C31">
-        <v>-0.03100919671375318</v>
+        <v>0.01153288718936958</v>
       </c>
       <c r="D31">
-        <v>-0.003382015986348002</v>
+        <v>-0.01894704688489791</v>
       </c>
       <c r="E31">
-        <v>-0.008282939085763536</v>
+        <v>-0.003580521459488536</v>
       </c>
       <c r="F31">
-        <v>-0.04825510426595409</v>
+        <v>0.00698427380777637</v>
       </c>
       <c r="G31">
-        <v>0.05225862375588608</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01637862313533775</v>
+      </c>
+      <c r="H31">
+        <v>-0.005885412235707909</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01662563597150502</v>
+        <v>0.01174741414058516</v>
       </c>
       <c r="C32">
-        <v>-0.01129570854036399</v>
+        <v>0.0135923316953288</v>
       </c>
       <c r="D32">
-        <v>-0.006439567376150089</v>
+        <v>-0.008260784008906272</v>
       </c>
       <c r="E32">
-        <v>-0.06287481377077445</v>
+        <v>0.03125618262646229</v>
       </c>
       <c r="F32">
-        <v>-0.07271206116613764</v>
+        <v>0.04273013707488446</v>
       </c>
       <c r="G32">
-        <v>0.04737400935375141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.0277119598651897</v>
+      </c>
+      <c r="H32">
+        <v>-0.05592017896064785</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04157260841009599</v>
+        <v>0.03990143503940537</v>
       </c>
       <c r="C33">
-        <v>-0.03802809247074648</v>
+        <v>0.002204766161201101</v>
       </c>
       <c r="D33">
-        <v>-0.03133438538168518</v>
+        <v>-0.034759894581083</v>
       </c>
       <c r="E33">
-        <v>-0.0187995333455798</v>
+        <v>-0.01946095696779182</v>
       </c>
       <c r="F33">
-        <v>-0.0842213583846706</v>
+        <v>0.005369143186107905</v>
       </c>
       <c r="G33">
-        <v>0.06751506291932739</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.05153563050773918</v>
+      </c>
+      <c r="H33">
+        <v>-0.05157816782146769</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02728704608833107</v>
+        <v>0.03037705854467864</v>
       </c>
       <c r="C34">
-        <v>-0.02557438194854916</v>
+        <v>0.01929322639168076</v>
       </c>
       <c r="D34">
-        <v>-0.007734463611037998</v>
+        <v>-0.03579817429076382</v>
       </c>
       <c r="E34">
-        <v>-0.02861265431012407</v>
+        <v>0.01146999844447007</v>
       </c>
       <c r="F34">
-        <v>-0.05466202757802648</v>
+        <v>0.01855299804541113</v>
       </c>
       <c r="G34">
-        <v>0.01690119276600319</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02089980957085718</v>
+      </c>
+      <c r="H34">
+        <v>-0.03842782884554296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01484746919068702</v>
+        <v>0.01884377686152267</v>
       </c>
       <c r="C36">
-        <v>-0.00123943299458322</v>
+        <v>-0.005758411750365011</v>
       </c>
       <c r="D36">
-        <v>-0.00423355496467915</v>
+        <v>-0.002146046956095899</v>
       </c>
       <c r="E36">
-        <v>-0.02145540140738609</v>
+        <v>0.008523684309162163</v>
       </c>
       <c r="F36">
-        <v>-0.03743854252878195</v>
+        <v>0.005163108862289404</v>
       </c>
       <c r="G36">
-        <v>0.0358139028149395</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02194910773350365</v>
+      </c>
+      <c r="H36">
+        <v>-0.01621549724904406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.001708441379647721</v>
+        <v>0.02822159907314207</v>
       </c>
       <c r="C38">
-        <v>0.00488291902635469</v>
+        <v>0.01677164511779002</v>
       </c>
       <c r="D38">
-        <v>-0.01587412289385301</v>
+        <v>-0.009352293917525942</v>
       </c>
       <c r="E38">
-        <v>0.03011564728474813</v>
+        <v>0.0008320228302919325</v>
       </c>
       <c r="F38">
-        <v>-0.03718745813014307</v>
+        <v>0.01279195013268013</v>
       </c>
       <c r="G38">
-        <v>0.01398509671614035</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02541466297302353</v>
+      </c>
+      <c r="H38">
+        <v>-0.04609485704733993</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02846943269614247</v>
+        <v>0.0252405789162703</v>
       </c>
       <c r="C39">
-        <v>-0.04650036286865818</v>
+        <v>0.009309419197985844</v>
       </c>
       <c r="D39">
-        <v>-0.009768744536151761</v>
+        <v>-0.08566434080612856</v>
       </c>
       <c r="E39">
-        <v>-0.0257735950337189</v>
+        <v>-0.002175167768231373</v>
       </c>
       <c r="F39">
-        <v>-0.06689624767357569</v>
+        <v>0.02449293804611562</v>
       </c>
       <c r="G39">
-        <v>0.03249897424254769</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04323376614620082</v>
+      </c>
+      <c r="H39">
+        <v>-0.07581548479672295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0317748744577278</v>
+        <v>0.03386144395560026</v>
       </c>
       <c r="C40">
-        <v>-0.06661994354141169</v>
+        <v>0.002439162641139565</v>
       </c>
       <c r="D40">
-        <v>0.02464209869144597</v>
+        <v>-0.02755791575057555</v>
       </c>
       <c r="E40">
-        <v>0.008929708345383371</v>
+        <v>-0.02262218010027535</v>
       </c>
       <c r="F40">
-        <v>-0.08228657989642395</v>
+        <v>0.0379633805203473</v>
       </c>
       <c r="G40">
-        <v>0.05754885282767308</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02274335486820394</v>
+      </c>
+      <c r="H40">
+        <v>-0.06627218162074969</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.001430222718009731</v>
+        <v>0.009570966928305703</v>
       </c>
       <c r="C41">
-        <v>0.001869753996975898</v>
+        <v>-0.003104844863356063</v>
       </c>
       <c r="D41">
-        <v>-0.007537294274698011</v>
+        <v>0.01539714143658865</v>
       </c>
       <c r="E41">
-        <v>-0.0005831221447673528</v>
+        <v>-0.001142677535026906</v>
       </c>
       <c r="F41">
-        <v>-0.01642158716350096</v>
+        <v>-0.00275009780695921</v>
       </c>
       <c r="G41">
-        <v>0.04755211132396588</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.005501825907088794</v>
+      </c>
+      <c r="H41">
+        <v>0.005308675702508958</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3527164301264603</v>
+        <v>0.1886565334583717</v>
       </c>
       <c r="C42">
-        <v>0.05880215247358334</v>
+        <v>-0.06206729619277716</v>
       </c>
       <c r="D42">
-        <v>-0.7721526470238992</v>
+        <v>-0.247812001625503</v>
       </c>
       <c r="E42">
-        <v>0.3662097943109699</v>
+        <v>-0.1968404069905491</v>
       </c>
       <c r="F42">
-        <v>0.2861362131706272</v>
+        <v>-0.9134660751686979</v>
       </c>
       <c r="G42">
-        <v>0.1477401734582922</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.08147476973516407</v>
+      </c>
+      <c r="H42">
+        <v>-0.004380421461664717</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0005559727841967266</v>
+        <v>0.01375706000992522</v>
       </c>
       <c r="C43">
-        <v>0.002725686529946482</v>
+        <v>-0.003040515645928442</v>
       </c>
       <c r="D43">
-        <v>-0.01035891405845396</v>
+        <v>0.01561473528846592</v>
       </c>
       <c r="E43">
-        <v>-0.0002640832098844276</v>
+        <v>-0.004224787840710901</v>
       </c>
       <c r="F43">
-        <v>-0.03217969494691156</v>
+        <v>-0.004858793609649003</v>
       </c>
       <c r="G43">
-        <v>0.04578144746680019</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.00744851020662124</v>
+      </c>
+      <c r="H43">
+        <v>-0.008490269704244982</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01514567412399732</v>
+        <v>0.02265876508393436</v>
       </c>
       <c r="C44">
-        <v>-0.001457030560400615</v>
+        <v>0.005779103510159666</v>
       </c>
       <c r="D44">
-        <v>-0.01078978926912432</v>
+        <v>-0.02991946970384723</v>
       </c>
       <c r="E44">
-        <v>0.007313572048419328</v>
+        <v>0.008393858642047209</v>
       </c>
       <c r="F44">
-        <v>-0.1080236110840499</v>
+        <v>0.006590136533653318</v>
       </c>
       <c r="G44">
-        <v>0.08592588271000855</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04830561512804601</v>
+      </c>
+      <c r="H44">
+        <v>-0.06629714389050337</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02064881025862132</v>
+        <v>0.01746750722757128</v>
       </c>
       <c r="C46">
-        <v>-0.01985787227780388</v>
+        <v>-0.004259171910858119</v>
       </c>
       <c r="D46">
-        <v>-0.01371932339106376</v>
+        <v>-0.01190004750955828</v>
       </c>
       <c r="E46">
-        <v>-0.03307447515806754</v>
+        <v>0.0006292514569393246</v>
       </c>
       <c r="F46">
-        <v>-0.07159907718693891</v>
+        <v>0.01633943819185306</v>
       </c>
       <c r="G46">
-        <v>0.05998922826781462</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04572244898125474</v>
+      </c>
+      <c r="H46">
+        <v>-0.006135597558363636</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09397031971694994</v>
+        <v>0.07744077320293817</v>
       </c>
       <c r="C47">
-        <v>-0.03363582168307024</v>
+        <v>0.0285882121891893</v>
       </c>
       <c r="D47">
-        <v>0.007062730599492082</v>
+        <v>-0.04140029714986022</v>
       </c>
       <c r="E47">
-        <v>-0.02751618704701753</v>
+        <v>0.0004444682244290134</v>
       </c>
       <c r="F47">
-        <v>-0.03237557607499188</v>
+        <v>0.01480792349867852</v>
       </c>
       <c r="G47">
-        <v>0.08079764884001037</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.01194116670954848</v>
+      </c>
+      <c r="H47">
+        <v>0.01926398363908458</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0173104972209887</v>
+        <v>0.02166776670988299</v>
       </c>
       <c r="C48">
-        <v>-0.009590287468400207</v>
+        <v>0.005438044033603811</v>
       </c>
       <c r="D48">
-        <v>-0.008597629753547277</v>
+        <v>-0.007623176561859565</v>
       </c>
       <c r="E48">
-        <v>-0.02094838016116897</v>
+        <v>0.0009096899033201523</v>
       </c>
       <c r="F48">
-        <v>-0.04344369651086867</v>
+        <v>0.009817175949215037</v>
       </c>
       <c r="G48">
-        <v>0.02863982168171341</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02568460864603751</v>
+      </c>
+      <c r="H48">
+        <v>-0.01893512313596481</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08507086740690824</v>
+        <v>0.07415096648599731</v>
       </c>
       <c r="C50">
-        <v>-0.03185443041554132</v>
+        <v>0.02548368066188376</v>
       </c>
       <c r="D50">
-        <v>-0.01102473275413402</v>
+        <v>-0.04042607608843481</v>
       </c>
       <c r="E50">
-        <v>-0.03064483970193759</v>
+        <v>0.01514234845800874</v>
       </c>
       <c r="F50">
-        <v>-0.04962799215748943</v>
+        <v>0.01070751818739626</v>
       </c>
       <c r="G50">
-        <v>0.0407301756674162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.00699836416345662</v>
+      </c>
+      <c r="H50">
+        <v>0.003272208253801693</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01453716413118684</v>
+        <v>0.02149291380607742</v>
       </c>
       <c r="C51">
-        <v>0.008952177293943245</v>
+        <v>-0.0008078773000843429</v>
       </c>
       <c r="D51">
-        <v>0.004617857285161526</v>
+        <v>-0.001522358943054997</v>
       </c>
       <c r="E51">
-        <v>0.01736901608478002</v>
+        <v>0.006304888409133486</v>
       </c>
       <c r="F51">
-        <v>-0.08981015206383132</v>
+        <v>0.006050203838887214</v>
       </c>
       <c r="G51">
-        <v>0.05969453997492857</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.0477009778621078</v>
+      </c>
+      <c r="H51">
+        <v>-0.04484695390016907</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1028026584983005</v>
+        <v>0.09670538215686508</v>
       </c>
       <c r="C53">
-        <v>-0.04469416295135626</v>
+        <v>0.03694881951936934</v>
       </c>
       <c r="D53">
-        <v>0.008005346153111745</v>
+        <v>-0.074300299841633</v>
       </c>
       <c r="E53">
-        <v>-0.04799394100069802</v>
+        <v>0.00290349572384044</v>
       </c>
       <c r="F53">
-        <v>0.02528446191983018</v>
+        <v>0.02916308981386514</v>
       </c>
       <c r="G53">
-        <v>0.01673861927597394</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.04685439803219962</v>
+      </c>
+      <c r="H53">
+        <v>0.02923808094103471</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02072133905808899</v>
+        <v>0.02529507591495374</v>
       </c>
       <c r="C54">
-        <v>-3.355102248734002e-05</v>
+        <v>0.008380560854277587</v>
       </c>
       <c r="D54">
-        <v>0.006212814441109182</v>
+        <v>0.01113308259969824</v>
       </c>
       <c r="E54">
-        <v>-0.03836184893217139</v>
+        <v>0.009326695145817781</v>
       </c>
       <c r="F54">
-        <v>-0.05300896428595393</v>
+        <v>0.01266457352484448</v>
       </c>
       <c r="G54">
-        <v>0.058647435081166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.04113854469868326</v>
+      </c>
+      <c r="H54">
+        <v>0.003592582585942222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1012304179029774</v>
+        <v>0.08051987945317843</v>
       </c>
       <c r="C55">
-        <v>-0.02554534663771649</v>
+        <v>0.03265230978782598</v>
       </c>
       <c r="D55">
-        <v>-0.00103527912501617</v>
+        <v>-0.07033209359458294</v>
       </c>
       <c r="E55">
-        <v>-0.06544639471251978</v>
+        <v>0.01181402121211484</v>
       </c>
       <c r="F55">
-        <v>0.0163858404861483</v>
+        <v>0.02129658969182101</v>
       </c>
       <c r="G55">
-        <v>0.05673211353752123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.02150752652945878</v>
+      </c>
+      <c r="H55">
+        <v>0.04090216458980871</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1438835444863091</v>
+        <v>0.1313258032335907</v>
       </c>
       <c r="C56">
-        <v>-0.06069598924658313</v>
+        <v>0.05480995767683656</v>
       </c>
       <c r="D56">
-        <v>0.04210338374535975</v>
+        <v>-0.0895574964772652</v>
       </c>
       <c r="E56">
-        <v>-0.07575760860550884</v>
+        <v>0.001217750903805832</v>
       </c>
       <c r="F56">
-        <v>0.0592594525974271</v>
+        <v>0.04952181908154302</v>
       </c>
       <c r="G56">
-        <v>-0.03179699617217164</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.08428273484593964</v>
+      </c>
+      <c r="H56">
+        <v>0.04925197539324652</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04367989837807253</v>
+        <v>0.04039787403750108</v>
       </c>
       <c r="C57">
-        <v>-0.01665898831954281</v>
+        <v>-0.01053115654458882</v>
       </c>
       <c r="D57">
-        <v>-0.0172018681837219</v>
+        <v>-0.03288680797508305</v>
       </c>
       <c r="E57">
-        <v>0.01451257350562866</v>
+        <v>-0.006196344201537777</v>
       </c>
       <c r="F57">
-        <v>-0.05542687995370874</v>
+        <v>0.01464672388040861</v>
       </c>
       <c r="G57">
-        <v>0.05732653269711488</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.07515591723553103</v>
+      </c>
+      <c r="H57">
+        <v>-0.05292058968017031</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2037572488122814</v>
+        <v>0.1602421915383682</v>
       </c>
       <c r="C58">
-        <v>-0.1340992058544213</v>
+        <v>0.05187896888164181</v>
       </c>
       <c r="D58">
-        <v>-0.06912202973542887</v>
+        <v>-0.1508512868765861</v>
       </c>
       <c r="E58">
-        <v>-0.06827180412646612</v>
+        <v>-0.1711781797586576</v>
       </c>
       <c r="F58">
-        <v>-0.4091605177084249</v>
+        <v>0.02319903651223615</v>
       </c>
       <c r="G58">
-        <v>0.06111902704329438</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.7938205530072714</v>
+      </c>
+      <c r="H58">
+        <v>0.4382405558335022</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05763858936868482</v>
+        <v>0.1523266695667418</v>
       </c>
       <c r="C59">
-        <v>0.06411135619206798</v>
+        <v>0.003738805084717237</v>
       </c>
       <c r="D59">
-        <v>0.1091230408942249</v>
+        <v>0.2313322838392919</v>
       </c>
       <c r="E59">
-        <v>0.1450173046766116</v>
+        <v>-0.01704058082689515</v>
       </c>
       <c r="F59">
-        <v>-0.06149097723461516</v>
+        <v>-0.004861773664473695</v>
       </c>
       <c r="G59">
-        <v>-0.02423342462242374</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.02428264965578689</v>
+      </c>
+      <c r="H59">
+        <v>-0.03106967777537728</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1532571154933116</v>
+        <v>0.1856930264299889</v>
       </c>
       <c r="C60">
-        <v>-0.09501620719515039</v>
+        <v>0.02866886569120223</v>
       </c>
       <c r="D60">
-        <v>-0.008401129133507369</v>
+        <v>-0.02117816659387048</v>
       </c>
       <c r="E60">
-        <v>0.1063404329169735</v>
+        <v>-0.04746067908331655</v>
       </c>
       <c r="F60">
-        <v>-0.177697224344932</v>
+        <v>0.05451552999958374</v>
       </c>
       <c r="G60">
-        <v>-0.2920808763418642</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.04166420637712065</v>
+      </c>
+      <c r="H60">
+        <v>-0.3645737218001991</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02004734703123087</v>
+        <v>0.02764848452937525</v>
       </c>
       <c r="C61">
-        <v>-0.02534768042553106</v>
+        <v>0.01146844738348828</v>
       </c>
       <c r="D61">
-        <v>-0.01048547929140629</v>
+        <v>-0.05177012070134498</v>
       </c>
       <c r="E61">
-        <v>-0.01688149288597036</v>
+        <v>0.004954703612921004</v>
       </c>
       <c r="F61">
-        <v>-0.03055252430168106</v>
+        <v>0.02459968765484993</v>
       </c>
       <c r="G61">
-        <v>0.01649369758082694</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.0236925563307597</v>
+      </c>
+      <c r="H61">
+        <v>-0.05653271717793808</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.009326399171110797</v>
+        <v>0.0143678532919473</v>
       </c>
       <c r="C63">
-        <v>-0.01629860898183403</v>
+        <v>-0.001245992250030683</v>
       </c>
       <c r="D63">
-        <v>-0.01738287537001003</v>
+        <v>-0.01938526783579182</v>
       </c>
       <c r="E63">
-        <v>-0.02334218013956641</v>
+        <v>0.005810987014491418</v>
       </c>
       <c r="F63">
-        <v>-0.0153490112838949</v>
+        <v>0.01293527187394074</v>
       </c>
       <c r="G63">
-        <v>0.07231543178894287</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01812286023861289</v>
+      </c>
+      <c r="H63">
+        <v>-0.01276727802918696</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03637597635360937</v>
+        <v>0.04396200203194626</v>
       </c>
       <c r="C64">
-        <v>0.0004217473189616633</v>
+        <v>0.01095851933516487</v>
       </c>
       <c r="D64">
-        <v>0.002008573731859863</v>
+        <v>-0.03425934335121515</v>
       </c>
       <c r="E64">
-        <v>-0.05176263275481931</v>
+        <v>0.0122696082778849</v>
       </c>
       <c r="F64">
-        <v>-0.03888908162612456</v>
+        <v>0.006402617627233736</v>
       </c>
       <c r="G64">
-        <v>0.05534879361651878</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.00593082100666812</v>
+      </c>
+      <c r="H64">
+        <v>-0.04174908895991924</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03107557232995457</v>
+        <v>0.03886903664416789</v>
       </c>
       <c r="C65">
-        <v>-0.01344121044361592</v>
+        <v>0.001678137174673586</v>
       </c>
       <c r="D65">
-        <v>-0.003352679754968011</v>
+        <v>-0.06530797154592198</v>
       </c>
       <c r="E65">
-        <v>-0.02259395594318466</v>
+        <v>0.009000324909712608</v>
       </c>
       <c r="F65">
-        <v>-0.01023195212587326</v>
+        <v>0.03589170322753939</v>
       </c>
       <c r="G65">
-        <v>-0.01417340122895654</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.001514938725188676</v>
+      </c>
+      <c r="H65">
+        <v>-0.06975048078428124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03105448085435631</v>
+        <v>0.03562677576067243</v>
       </c>
       <c r="C66">
-        <v>-0.05913881640278513</v>
+        <v>0.01650133623523014</v>
       </c>
       <c r="D66">
-        <v>-0.0105904331825208</v>
+        <v>-0.1046111870582897</v>
       </c>
       <c r="E66">
-        <v>-0.03597300002368887</v>
+        <v>-0.004279870938807068</v>
       </c>
       <c r="F66">
-        <v>-0.05242445012819306</v>
+        <v>0.04428469418610993</v>
       </c>
       <c r="G66">
-        <v>0.01451218016012589</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.03803877926188631</v>
+      </c>
+      <c r="H66">
+        <v>-0.08156577223667005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01234912533869397</v>
+        <v>0.04786659689857847</v>
       </c>
       <c r="C67">
-        <v>-0.002635774596288982</v>
+        <v>0.0187437714992667</v>
       </c>
       <c r="D67">
-        <v>-0.008378659765395553</v>
+        <v>-0.009703518069710355</v>
       </c>
       <c r="E67">
-        <v>0.03404619283633069</v>
+        <v>-0.00293985883802958</v>
       </c>
       <c r="F67">
-        <v>-0.01943782597882759</v>
+        <v>0.02093124144120305</v>
       </c>
       <c r="G67">
-        <v>0.002820081665144673</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01257151208951713</v>
+      </c>
+      <c r="H67">
+        <v>-0.04781140489499719</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07537080662667743</v>
+        <v>0.1438632938072376</v>
       </c>
       <c r="C68">
-        <v>0.09186083818494789</v>
+        <v>-0.0198486172281942</v>
       </c>
       <c r="D68">
-        <v>0.1173951705042916</v>
+        <v>0.2412309051715855</v>
       </c>
       <c r="E68">
-        <v>0.1436008620712346</v>
+        <v>-0.01179306570276569</v>
       </c>
       <c r="F68">
-        <v>-0.05675515326648446</v>
+        <v>-0.03784475089714672</v>
       </c>
       <c r="G68">
-        <v>-0.06770348901531406</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.02993876701592483</v>
+      </c>
+      <c r="H68">
+        <v>0.04618823379346906</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06839364179678037</v>
+        <v>0.0638265093803079</v>
       </c>
       <c r="C69">
-        <v>-0.04077914105618407</v>
+        <v>0.02897748720894322</v>
       </c>
       <c r="D69">
-        <v>0.01514569303117028</v>
+        <v>-0.03991500848155038</v>
       </c>
       <c r="E69">
-        <v>-0.01806636872310422</v>
+        <v>0.0001037601917709697</v>
       </c>
       <c r="F69">
-        <v>-0.01621273061773176</v>
+        <v>0.02565990418998676</v>
       </c>
       <c r="G69">
-        <v>0.07882920544678292</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01664749902359539</v>
+      </c>
+      <c r="H69">
+        <v>-0.009247197431645935</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.0775170232624391</v>
+        <v>0.1397967492117389</v>
       </c>
       <c r="C71">
-        <v>0.09541605481839563</v>
+        <v>-0.006973916200435074</v>
       </c>
       <c r="D71">
-        <v>0.1060186487776945</v>
+        <v>0.2085062718090345</v>
       </c>
       <c r="E71">
-        <v>0.2038252383790513</v>
+        <v>-0.0173445803370345</v>
       </c>
       <c r="F71">
-        <v>-0.04637647111821062</v>
+        <v>-0.04397271291032009</v>
       </c>
       <c r="G71">
-        <v>0.00178619934163838</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.03483676596277087</v>
+      </c>
+      <c r="H71">
+        <v>0.02119443977717754</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1050164053188353</v>
+        <v>0.08212794125632512</v>
       </c>
       <c r="C72">
-        <v>-0.0725250203298497</v>
+        <v>0.03950418778374216</v>
       </c>
       <c r="D72">
-        <v>0.04239239183256468</v>
+        <v>-0.0700935657564301</v>
       </c>
       <c r="E72">
-        <v>-0.03620478912376709</v>
+        <v>-0.01274039881833356</v>
       </c>
       <c r="F72">
-        <v>-0.09700281942602859</v>
+        <v>0.0760320173943911</v>
       </c>
       <c r="G72">
-        <v>-0.08318883243849048</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.02508403841832754</v>
+      </c>
+      <c r="H72">
+        <v>-0.1315820406971993</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.223297463248292</v>
+        <v>0.2557858824878612</v>
       </c>
       <c r="C73">
-        <v>-0.1358122060891039</v>
+        <v>0.04279226072776773</v>
       </c>
       <c r="D73">
-        <v>-0.02046681334331022</v>
+        <v>-0.07916830797938532</v>
       </c>
       <c r="E73">
-        <v>0.1895605648182753</v>
+        <v>-0.08510374983946506</v>
       </c>
       <c r="F73">
-        <v>-0.2144992837807718</v>
+        <v>0.06384624976657781</v>
       </c>
       <c r="G73">
-        <v>-0.4188641856511711</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.05546842910545257</v>
+      </c>
+      <c r="H73">
+        <v>-0.4735968973696603</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.136520957272619</v>
+        <v>0.1258722796921004</v>
       </c>
       <c r="C74">
-        <v>-0.03602821515144407</v>
+        <v>0.05361813075651491</v>
       </c>
       <c r="D74">
-        <v>0.01299574771228752</v>
+        <v>-0.09699325216052701</v>
       </c>
       <c r="E74">
-        <v>-0.04549154313004519</v>
+        <v>0.004581835418277821</v>
       </c>
       <c r="F74">
-        <v>0.07451765470445576</v>
+        <v>0.03332949355267485</v>
       </c>
       <c r="G74">
-        <v>-0.01020470103717772</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.0677128773092954</v>
+      </c>
+      <c r="H74">
+        <v>0.01746227546150341</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2297431780775825</v>
+        <v>0.2375971406753468</v>
       </c>
       <c r="C75">
-        <v>-0.09638676468399485</v>
+        <v>0.09966582291093273</v>
       </c>
       <c r="D75">
-        <v>0.09073125714375715</v>
+        <v>-0.1464026391647334</v>
       </c>
       <c r="E75">
-        <v>-0.108172583774087</v>
+        <v>-0.01273567624839727</v>
       </c>
       <c r="F75">
-        <v>0.07888304690033014</v>
+        <v>0.09458836675851527</v>
       </c>
       <c r="G75">
-        <v>-0.002450857051937513</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1457472517712221</v>
+      </c>
+      <c r="H75">
+        <v>0.1166049358699844</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2744828056214918</v>
+        <v>0.2068736081304366</v>
       </c>
       <c r="C76">
-        <v>-0.08779787181096052</v>
+        <v>0.09218842245338651</v>
       </c>
       <c r="D76">
-        <v>0.1192961823546794</v>
+        <v>-0.1391566915270757</v>
       </c>
       <c r="E76">
-        <v>-0.1584584540887544</v>
+        <v>0.0328563720619679</v>
       </c>
       <c r="F76">
-        <v>0.1622134267391335</v>
+        <v>0.08803220735764967</v>
       </c>
       <c r="G76">
-        <v>-0.01220096774780763</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1464753929085964</v>
+      </c>
+      <c r="H76">
+        <v>0.1200950508606002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1192772975704735</v>
+        <v>0.07718638178782157</v>
       </c>
       <c r="C77">
-        <v>-0.05148320260783519</v>
+        <v>0.01384749885358259</v>
       </c>
       <c r="D77">
-        <v>-0.07283904743298417</v>
+        <v>-0.0681112105543316</v>
       </c>
       <c r="E77">
-        <v>-0.03080822096886646</v>
+        <v>-0.007519434744211431</v>
       </c>
       <c r="F77">
-        <v>-0.1767440693190536</v>
+        <v>-0.003540094166201442</v>
       </c>
       <c r="G77">
-        <v>0.2177852094585422</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.09012757911328981</v>
+      </c>
+      <c r="H77">
+        <v>-0.008707137226601968</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.07065191704004087</v>
+        <v>0.0462220011323998</v>
       </c>
       <c r="C78">
-        <v>-0.04683904115664806</v>
+        <v>0.01445730769632879</v>
       </c>
       <c r="D78">
-        <v>-0.03493448494537567</v>
+        <v>-0.05784976446308072</v>
       </c>
       <c r="E78">
-        <v>-0.06808719310029256</v>
+        <v>0.006165306842077501</v>
       </c>
       <c r="F78">
-        <v>-0.1054692488380676</v>
+        <v>0.02832534218556719</v>
       </c>
       <c r="G78">
-        <v>0.04159287479306746</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.06899587843169366</v>
+      </c>
+      <c r="H78">
+        <v>-0.075361641196812</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2465584928060798</v>
+        <v>0.1429128879843821</v>
       </c>
       <c r="C80">
-        <v>0.8293433718595689</v>
+        <v>0.03322893709432151</v>
       </c>
       <c r="D80">
-        <v>-0.1060584722331755</v>
+        <v>-0.05161212973593805</v>
       </c>
       <c r="E80">
-        <v>-0.4203209959231547</v>
+        <v>0.9478442846357937</v>
       </c>
       <c r="F80">
-        <v>-0.1125257280179974</v>
+        <v>-0.1824657453964029</v>
       </c>
       <c r="G80">
-        <v>-0.1353164360525076</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1318005720741225</v>
+      </c>
+      <c r="H80">
+        <v>0.01008107772371736</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1747675051383584</v>
+        <v>0.1599657114554743</v>
       </c>
       <c r="C81">
-        <v>-0.06366040863995583</v>
+        <v>0.06539054242560879</v>
       </c>
       <c r="D81">
-        <v>0.08351060984821819</v>
+        <v>-0.09196065648082601</v>
       </c>
       <c r="E81">
-        <v>-0.09312584442164434</v>
+        <v>0.007725383412154925</v>
       </c>
       <c r="F81">
-        <v>0.1057721336248012</v>
+        <v>0.06276898567760422</v>
       </c>
       <c r="G81">
-        <v>-0.03900439179122418</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.09978842821336982</v>
+      </c>
+      <c r="H81">
+        <v>0.0795871524077179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03424432724620216</v>
+        <v>0.03453592057655314</v>
       </c>
       <c r="C83">
-        <v>-0.03104407812406884</v>
+        <v>0.006327902411590542</v>
       </c>
       <c r="D83">
-        <v>-0.02260290705399835</v>
+        <v>-0.02214224391404972</v>
       </c>
       <c r="E83">
-        <v>0.001492744635495495</v>
+        <v>-0.005265191117575737</v>
       </c>
       <c r="F83">
-        <v>-0.05903126267318744</v>
+        <v>0.01228184662073934</v>
       </c>
       <c r="G83">
-        <v>0.0421782462728742</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05248629438465973</v>
+      </c>
+      <c r="H83">
+        <v>-0.04087599661348289</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2556465458920684</v>
+        <v>0.2261524858150288</v>
       </c>
       <c r="C85">
-        <v>-0.0936480477220684</v>
+        <v>0.08454218901947878</v>
       </c>
       <c r="D85">
-        <v>0.09215837195176718</v>
+        <v>-0.1531520015017775</v>
       </c>
       <c r="E85">
-        <v>-0.1235911444875601</v>
+        <v>-0.00509268074716117</v>
       </c>
       <c r="F85">
-        <v>0.1042327744142006</v>
+        <v>0.07802286571225849</v>
       </c>
       <c r="G85">
-        <v>0.02486691714988586</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1558709597628094</v>
+      </c>
+      <c r="H85">
+        <v>0.08078834929450689</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0008933791727123273</v>
+        <v>0.02970524864548356</v>
       </c>
       <c r="C86">
-        <v>0.00312088162435715</v>
+        <v>0.003871644842888507</v>
       </c>
       <c r="D86">
-        <v>-0.02649082892076242</v>
+        <v>-0.0281717743003276</v>
       </c>
       <c r="E86">
-        <v>-0.02452328500835965</v>
+        <v>-0.002584729675566024</v>
       </c>
       <c r="F86">
-        <v>-0.07296411334308854</v>
+        <v>0.001979565899284829</v>
       </c>
       <c r="G86">
-        <v>0.04536220680519294</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.08399798848051492</v>
+      </c>
+      <c r="H86">
+        <v>-0.09302726937778526</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03861436972432807</v>
+        <v>0.02968606196785361</v>
       </c>
       <c r="C87">
-        <v>0.001165319494194172</v>
+        <v>0.004603739413636965</v>
       </c>
       <c r="D87">
-        <v>-0.02154605086731509</v>
+        <v>-0.04250649483250534</v>
       </c>
       <c r="E87">
-        <v>-0.00883113574855398</v>
+        <v>0.009987399376052105</v>
       </c>
       <c r="F87">
-        <v>-0.1122228986666162</v>
+        <v>0.01402790581611398</v>
       </c>
       <c r="G87">
-        <v>0.0508997022848877</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.08710147097377439</v>
+      </c>
+      <c r="H87">
+        <v>-0.07573676593892971</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01277235290872016</v>
+        <v>0.04020303270196674</v>
       </c>
       <c r="C88">
-        <v>0.01549152631859357</v>
+        <v>-0.01049684212325552</v>
       </c>
       <c r="D88">
-        <v>0.01385706027030314</v>
+        <v>-0.01687356688348907</v>
       </c>
       <c r="E88">
-        <v>-0.01714898906756387</v>
+        <v>0.01111029123752993</v>
       </c>
       <c r="F88">
-        <v>0.002473915059221165</v>
+        <v>0.01627432102937418</v>
       </c>
       <c r="G88">
-        <v>0.04984130610083034</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.006399042929225579</v>
+      </c>
+      <c r="H88">
+        <v>-0.01555576582862864</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1157924958115746</v>
+        <v>0.237334070953613</v>
       </c>
       <c r="C89">
-        <v>0.1307403611421505</v>
+        <v>-0.0152352719424412</v>
       </c>
       <c r="D89">
-        <v>0.1796412378346935</v>
+        <v>0.365010658456232</v>
       </c>
       <c r="E89">
-        <v>0.2467974099169521</v>
+        <v>-0.02475972719962225</v>
       </c>
       <c r="F89">
-        <v>-0.08625789234588531</v>
+        <v>-0.02776760192595563</v>
       </c>
       <c r="G89">
-        <v>-0.02341514168230442</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.002930045286638876</v>
+      </c>
+      <c r="H89">
+        <v>-0.0129160940451598</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09662099309451037</v>
+        <v>0.1894171276357813</v>
       </c>
       <c r="C90">
-        <v>0.1789678514453101</v>
+        <v>-0.01473145195894748</v>
       </c>
       <c r="D90">
-        <v>0.1881808758468869</v>
+        <v>0.3234234724829838</v>
       </c>
       <c r="E90">
-        <v>0.2597495208946459</v>
+        <v>-0.01777775680260375</v>
       </c>
       <c r="F90">
-        <v>-0.03078255295726115</v>
+        <v>-0.0558152864723892</v>
       </c>
       <c r="G90">
-        <v>0.008885176918239973</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.009229113847576709</v>
+      </c>
+      <c r="H90">
+        <v>0.04656836546571408</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.3065945707483799</v>
+        <v>0.2390970911515888</v>
       </c>
       <c r="C91">
-        <v>-0.1197291246231349</v>
+        <v>0.09671691742957739</v>
       </c>
       <c r="D91">
-        <v>0.09182210036913635</v>
+        <v>-0.1308070116402728</v>
       </c>
       <c r="E91">
-        <v>-0.1211824825250714</v>
+        <v>-0.01239805007929122</v>
       </c>
       <c r="F91">
-        <v>0.2184500849398761</v>
+        <v>0.07609407982535155</v>
       </c>
       <c r="G91">
-        <v>-0.04039807236572494</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1735078434134522</v>
+      </c>
+      <c r="H91">
+        <v>0.1565538780829663</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1776105624723585</v>
+        <v>0.2425444573721601</v>
       </c>
       <c r="C92">
-        <v>0.1404983817819976</v>
+        <v>0.0519392158162266</v>
       </c>
       <c r="D92">
-        <v>0.3365283902584843</v>
+        <v>0.2629041707299715</v>
       </c>
       <c r="E92">
-        <v>0.2412369913006432</v>
+        <v>-0.00353282076159006</v>
       </c>
       <c r="F92">
-        <v>0.1781930069947138</v>
+        <v>0.002399340088350695</v>
       </c>
       <c r="G92">
-        <v>0.5242608661672827</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.0007025899182566592</v>
+      </c>
+      <c r="H92">
+        <v>0.1200137012316682</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09790776890527117</v>
+        <v>0.2138430208785662</v>
       </c>
       <c r="C93">
-        <v>0.1699019703058628</v>
+        <v>-0.005984556858375381</v>
       </c>
       <c r="D93">
-        <v>0.2225992394221273</v>
+        <v>0.3410460164271248</v>
       </c>
       <c r="E93">
-        <v>0.3654405820961902</v>
+        <v>-0.03888388672306479</v>
       </c>
       <c r="F93">
-        <v>0.01002393419172311</v>
+        <v>-0.05980458339216718</v>
       </c>
       <c r="G93">
-        <v>-0.07028617108788054</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.002306110280503836</v>
+      </c>
+      <c r="H93">
+        <v>-0.01337735481246624</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3038090092661787</v>
+        <v>0.2754101320237127</v>
       </c>
       <c r="C94">
-        <v>-0.1472267753417771</v>
+        <v>0.08980051891876362</v>
       </c>
       <c r="D94">
-        <v>0.1858372052364189</v>
+        <v>-0.1299801121650174</v>
       </c>
       <c r="E94">
-        <v>-0.1449257507443863</v>
+        <v>-0.04461260217378484</v>
       </c>
       <c r="F94">
-        <v>0.1736666418564541</v>
+        <v>0.1514778998939603</v>
       </c>
       <c r="G94">
-        <v>-0.04865829120246783</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2423381196447298</v>
+      </c>
+      <c r="H94">
+        <v>0.2904004780428324</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.05482169459109866</v>
+        <v>0.06108339551963323</v>
       </c>
       <c r="C95">
-        <v>-0.05467818817993279</v>
+        <v>0.03487286379052078</v>
       </c>
       <c r="D95">
-        <v>-0.04292152608856223</v>
+        <v>-0.08491897346881294</v>
       </c>
       <c r="E95">
-        <v>-0.06054178220598418</v>
+        <v>-0.07706213915821231</v>
       </c>
       <c r="F95">
-        <v>-0.06120283943470159</v>
+        <v>0.002444361167782976</v>
       </c>
       <c r="G95">
-        <v>0.2069268337085733</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.06057616807415029</v>
+      </c>
+      <c r="H95">
+        <v>-0.05257599849715642</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1693694329866509</v>
+        <v>0.1844746511471682</v>
       </c>
       <c r="C98">
-        <v>-0.06396513171288644</v>
+        <v>0.05827593842734627</v>
       </c>
       <c r="D98">
-        <v>-0.03599295856851122</v>
+        <v>-0.0325081625094174</v>
       </c>
       <c r="E98">
-        <v>0.1360840956978706</v>
+        <v>-0.04805315053004038</v>
       </c>
       <c r="F98">
-        <v>-0.1264521423838862</v>
+        <v>0.01598325725204103</v>
       </c>
       <c r="G98">
-        <v>-0.3374833702569703</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.08473212085947711</v>
+      </c>
+      <c r="H98">
+        <v>-0.3405288050025489</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.005461730755923445</v>
+        <v>0.01784476063007082</v>
       </c>
       <c r="C101">
-        <v>-0.01484741093542253</v>
+        <v>0.0004001813853518887</v>
       </c>
       <c r="D101">
-        <v>-0.0094323387970081</v>
+        <v>-0.01255438926662673</v>
       </c>
       <c r="E101">
-        <v>-0.06514407748033403</v>
+        <v>0.007150935316548739</v>
       </c>
       <c r="F101">
-        <v>-0.1693755481327618</v>
+        <v>0.02867897125424815</v>
       </c>
       <c r="G101">
-        <v>0.1184796083428679</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1044334612028103</v>
+      </c>
+      <c r="H101">
+        <v>0.03005188597140608</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.117557819464362</v>
+        <v>0.108603624091353</v>
       </c>
       <c r="C102">
-        <v>-0.0525384202396993</v>
+        <v>0.03352125452898504</v>
       </c>
       <c r="D102">
-        <v>0.03120942263866617</v>
+        <v>-0.07488436728026303</v>
       </c>
       <c r="E102">
-        <v>-0.07845369896816283</v>
+        <v>-0.0002934003712195328</v>
       </c>
       <c r="F102">
-        <v>0.08194401596016006</v>
+        <v>0.04147901407278999</v>
       </c>
       <c r="G102">
-        <v>-0.005987806313550434</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.08611671544448002</v>
+      </c>
+      <c r="H102">
+        <v>0.05761247549382061</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.03466191147834288</v>
+        <v>0.01659197159196412</v>
       </c>
       <c r="C103">
-        <v>0.0009455713739419253</v>
+        <v>0.006152425653543196</v>
       </c>
       <c r="D103">
-        <v>0.0108352947971708</v>
+        <v>-0.01447928524455926</v>
       </c>
       <c r="E103">
-        <v>-0.0411673805507016</v>
+        <v>0.00921983204347804</v>
       </c>
       <c r="F103">
-        <v>-0.004923806745127059</v>
+        <v>0.007854150322157083</v>
       </c>
       <c r="G103">
-        <v>0.009906848516751136</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-3.143360036741384e-05</v>
+      </c>
+      <c r="H103">
+        <v>0.01088607414413555</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2012798043236431</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.957284219808039</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.115897936938734</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02453581041793246</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1305636072727852</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.03297574513045251</v>
+      </c>
+      <c r="H104">
+        <v>0.04660232363969953</v>
       </c>
     </row>
   </sheetData>
